--- a/Retroplanning_diagramme_de_Gantt_Currid_Nathalie.xlsx
+++ b/Retroplanning_diagramme_de_Gantt_Currid_Nathalie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncurrid/Documents/Perso/P11/Livrables_P11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FB9D93-EDD5-5E40-BE97-E9C9E9B12562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B0B30-28FE-ED4E-A7F6-7445F05C0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16880" activeTab="2" xr2:uid="{333515F6-0B6B-C543-A973-155CD13ED209}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="21" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Intitulé de l'étape</t>
   </si>
@@ -257,15 +257,6 @@
   </si>
   <si>
     <t>Unité principale : 1 ou 2 jours</t>
-  </si>
-  <si>
-    <t>Etape 1</t>
-  </si>
-  <si>
-    <t>Etape 2</t>
-  </si>
-  <si>
-    <t>Etape 3</t>
   </si>
 </sst>
 </file>
@@ -3672,7 +3663,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046B409C-9D5C-8F43-BABF-7E3E3D3697D6}" name="Tableau croisé dynamique2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046B409C-9D5C-8F43-BABF-7E3E3D3697D6}" name="Tableau croisé dynamique2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -4493,7 +4484,7 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C19" zoomScale="94" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="64" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -4722,8 +4713,8 @@
         <v>0</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="22" t="s">
-        <v>58</v>
+      <c r="D13" s="22">
+        <v>1</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>3</v>
@@ -4769,8 +4760,8 @@
         <v>0</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="22" t="s">
-        <v>59</v>
+      <c r="D14" s="22">
+        <v>2</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>4</v>
@@ -4817,8 +4808,8 @@
         <v>0</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="22" t="s">
-        <v>60</v>
+      <c r="D15" s="22">
+        <v>3</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>5</v>
@@ -5228,7 +5219,7 @@
       </c>
       <c r="L23" s="52">
         <f t="shared" ca="1" si="4"/>
-        <v>45829</v>
+        <v>45830</v>
       </c>
       <c r="M23" s="27">
         <f t="shared" ca="1" si="7"/>

--- a/Retroplanning_diagramme_de_Gantt_Currid_Nathalie.xlsx
+++ b/Retroplanning_diagramme_de_Gantt_Currid_Nathalie.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncurrid/Documents/Perso/P11/Livrables_P11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B0B30-28FE-ED4E-A7F6-7445F05C0732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389A82BA-D7AB-C443-9132-2A4BAE10D94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16880" activeTab="2" xr2:uid="{333515F6-0B6B-C543-A973-155CD13ED209}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{333515F6-0B6B-C543-A973-155CD13ED209}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil4" sheetId="4" r:id="rId1"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId2"/>
+    <sheet name="Problématiques" sheetId="8" r:id="rId1"/>
+    <sheet name="Objectifs SMART" sheetId="6" r:id="rId2"/>
     <sheet name="Rétroplanning portfolio BI" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -22,9 +22,6 @@
     <definedName name="FRANCAIS">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Intitulé de l'étape</t>
   </si>
@@ -86,9 +83,6 @@
   </si>
   <si>
     <t>Relecture générale et buffer</t>
-  </si>
-  <si>
-    <t>Rétroplanning pour la création du portfolio professionnel de la data de Nathalie Currid</t>
   </si>
   <si>
     <r>
@@ -178,96 +172,95 @@
     <t>Nb projets</t>
   </si>
   <si>
-    <t>Somme de Durée en jours</t>
-  </si>
-  <si>
-    <t>Étiquettes de lignes</t>
-  </si>
-  <si>
-    <t>Total général</t>
-  </si>
-  <si>
-    <t>Étapes détaillées</t>
-  </si>
-  <si>
-    <t>1. Sélectionner les données</t>
-  </si>
-  <si>
-    <t>Même si la colonne “Date de début” est à droite, tu vas sélectionner les données dans l’ordre suivant (important pour le graphique) :</t>
-  </si>
-  <si>
-    <t>2. Insérer le graphique</t>
-  </si>
-  <si>
-    <t>3. Transformer en diagramme de Gantt</t>
-  </si>
-  <si>
-    <t>4. Inverser l’ordre des tâches</t>
-  </si>
-  <si>
-    <t>Clique sur l’axe vertical (les noms des étapes)</t>
-  </si>
-  <si>
-    <t>5. Ajuster l’échelle de l’axe horizontal (dates)</t>
-  </si>
-  <si>
-    <t>Clique sur l’axe horizontal (dates en bas)</t>
-  </si>
-  <si>
-    <t>Date de début (colonne C)</t>
-  </si>
-  <si>
-    <t>Durée (jours) (colonne B)</t>
-  </si>
-  <si>
-    <t>Intitulé de l'étape (colonne A)</t>
-  </si>
-  <si>
-    <t>🖱️ Maintiens Ctrl (Windows) ou Cmd (Mac) pour sélectionner plusieurs plages dans l’ordre.</t>
-  </si>
-  <si>
-    <t>Clique sur : Insertion &gt; Graphique en barres &gt; Barres empilées (2D)</t>
-  </si>
-  <si>
-    <t>Clique sur les barres qui correspondent à la série “Date de début”</t>
-  </si>
-  <si>
-    <t>Clic droit &gt; Format de la série de données</t>
-  </si>
-  <si>
-    <t>Dans le menu : Remplissage &gt; Aucun remplissage</t>
-  </si>
-  <si>
-    <t>➡️ Tu verras maintenant uniquement les barres de durée, positionnées en fonction de leur date de début.</t>
-  </si>
-  <si>
-    <t>Clic droit &gt; Format de l’axe</t>
-  </si>
-  <si>
-    <t>Coche "Catégories en ordre inverse"</t>
-  </si>
-  <si>
-    <t>Format de l’axe &gt; Ajuste :</t>
-  </si>
-  <si>
-    <t>Minimum : 24/05/2025 (ou la première date du projet)</t>
-  </si>
-  <si>
-    <t>Maximum : la fin du projet</t>
-  </si>
-  <si>
-    <t>Unité principale : 1 ou 2 jours</t>
+    <t>Objectifs SMART d’élaboration du portfolio</t>
+  </si>
+  <si>
+    <t>Spécifique</t>
+  </si>
+  <si>
+    <t>Créer un portfolio en ligne mettant en valeur mes compétences en data et mes projets réalisés, accessible depuis un CV interactif.</t>
+  </si>
+  <si>
+    <t>Mesurable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le portfolio comportera : 10 projets data, 1 cahier des charges, 1 Carte mentale, 1 analyse des besoins métier, 1 CV interactif public (conçu à partir de 2 mock-ups), 1 tableau de bord de veille métier, 1 vidéo explicative </t>
+  </si>
+  <si>
+    <t>Atteignable</t>
+  </si>
+  <si>
+    <t>Utilisation d’une plateforme et d’outils accessibles.</t>
+  </si>
+  <si>
+    <t>Réaliste</t>
+  </si>
+  <si>
+    <t>Prévoir un design sobre et professionnel, sans viser une complexité excessive, en réutilisant des projets déjà réalisés ou en cours.</t>
+  </si>
+  <si>
+    <t>Temporellement défini</t>
+  </si>
+  <si>
+    <t>Finaliser le portfolio complet dans un délai de 4 semaines, avec une publication en ligne et vérification de tous les liens et contenus.</t>
+  </si>
+  <si>
+    <t>Rétroplanning pour la création du portfolio professionnel de la data</t>
+  </si>
+  <si>
+    <t>Gestion de la data</t>
+  </si>
+  <si>
+    <t>Défis techniques</t>
+  </si>
+  <si>
+    <t>•Volume massif de données générées (essais en vol, capteurs, maintenance, clients, etc.).</t>
+  </si>
+  <si>
+    <t>•Besoin de structuration via des systèmes robustes de gestion (type Data Lake).</t>
+  </si>
+  <si>
+    <t>•Intégration et interopérabilité des sources de données.</t>
+  </si>
+  <si>
+    <t>•Sécurisation des données sensibles (cybersécurité, confidentialité).</t>
+  </si>
+  <si>
+    <t>•Mise en place d’infrastructures évolutives et performantes.</t>
+  </si>
+  <si>
+    <t>•Utilisation de l’IA et de l’apprentissage automatique pour l’analyse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problématiques </t>
+  </si>
+  <si>
+    <t>Chef de projet Data Analyst</t>
+  </si>
+  <si>
+    <t>•Expérimenté et polyvalent, avec capacité de pilotage de projets data complexes.</t>
+  </si>
+  <si>
+    <t>•Intérêt pour l’innovation et possibilité d’évolution vers un rôle de manager d’équipe.</t>
+  </si>
+  <si>
+    <t>•Maîtrise des outils d’analyse avancés et des environnements Big Data.</t>
+  </si>
+  <si>
+    <t>•Anglais technique ou opérationnel est plus.</t>
+  </si>
+  <si>
+    <t>Profil recherché</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d&quot;-&quot;mmm&quot;-&quot;yyyy"/>
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,12 +277,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="25"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -338,6 +325,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -653,164 +713,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,544 +1262,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Retroplanning_diagramme_de_Gantt_Currid_Nathalie.xlsx]Feuil4!Tableau croisé dynamique2</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Feuil4!$A$2:$A$24</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="11"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>25-mai-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>8-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>10-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>16-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28-mai-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>6-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>24-mai-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2-juin-2025</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18-juin-2025</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Analyse des besoins métier (rapport au format Word)</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Compilation des données pour le CV interactif Power BI (Excel)</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Conception du CV interactif et mise en ligne (Power BI)</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Création d'un compte GitHub pour le porfolio</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Création d'un compte Power BI sur le cloud de Microsoft - Nom de domaine : curridbia</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Création d'un tableau de bord de veille métier (Excel)</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Création d'une carte mentale pour répertorier le contenu à mettre sur GitHub (Miro)</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Création de 2 mock-ups pour le CV interactif (Miro)</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Élaboration du cahier des charges avec rétroplanning et diagramme de Gantt (Excel)</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Intégration de 10 projets et certificats : 11 repositories (GitHub)</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Relecture générale et buffer</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil4!$B$2:$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5786-D042-B9D1-0C607104C22E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1675017632"/>
-        <c:axId val="1675019904"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1675017632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1675019904"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1675019904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1675017632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -2340,550 +1885,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3392,47 +2394,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742095DB-345B-EB09-179D-E9CD77035CEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>229680</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -3468,346 +2429,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nathalie Currid" refreshedDate="45828.70533287037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{DB8FD9EB-0E2B-4840-82F4-699495481FA8}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Tableau2"/>
-  </cacheSource>
-  <cacheFields count="9">
-    <cacheField name="Etapes" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="11"/>
-    </cacheField>
-    <cacheField name="Intitulé de l'étape" numFmtId="0">
-      <sharedItems count="11">
-        <s v="Élaboration du cahier des charges avec rétroplanning et diagramme de Gantt (Excel)"/>
-        <s v="Analyse des besoins métier (rapport au format Word)"/>
-        <s v="Création d'une carte mentale pour répertorier le contenu à mettre sur GitHub (Miro)"/>
-        <s v="Création d'un compte GitHub pour le porfolio"/>
-        <s v="Intégration de 10 projets et certificats : 11 repositories (GitHub)"/>
-        <s v="Création de 2 mock-ups pour le CV interactif (Miro)"/>
-        <s v="Compilation des données pour le CV interactif Power BI (Excel)"/>
-        <s v="Création d'un compte Power BI sur le cloud de Microsoft - Nom de domaine : curridbia"/>
-        <s v="Conception du CV interactif et mise en ligne (Power BI)"/>
-        <s v="Création d'un tableau de bord de veille métier (Excel)"/>
-        <s v="Relecture générale et buffer"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Durée en jours" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
-    </cacheField>
-    <cacheField name="Date de début" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-24T00:00:00" maxDate="2025-06-18T04:48:00" count="11">
-        <d v="2025-05-24T00:00:00"/>
-        <d v="2025-05-25T19:12:00"/>
-        <d v="2025-05-28T12:00:00"/>
-        <d v="2025-06-01T02:24:00"/>
-        <d v="2025-06-02T00:00:00"/>
-        <d v="2025-06-06T12:00:00"/>
-        <d v="2025-06-08T07:12:00"/>
-        <d v="2025-06-10T02:24:00"/>
-        <d v="2025-06-11T00:00:00"/>
-        <d v="2025-06-16T09:36:00"/>
-        <d v="2025-06-18T04:48:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Date de fin cible" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-25T19:12:00" maxDate="2025-06-21T00:00:00"/>
-    </cacheField>
-    <cacheField name="Progression théorique" numFmtId="9">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Colonne1" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Progression réelle en %" numFmtId="9">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-    <cacheField name="Date de fin suggérée" numFmtId="14">
-      <sharedItems containsDate="1" containsMixedTypes="1" minDate="2025-06-21T00:00:00" maxDate="2025-06-22T00:00:00"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
-  <r>
-    <s v="Etape 1"/>
-    <x v="0"/>
-    <n v="2"/>
-    <x v="0"/>
-    <d v="2025-05-25T19:12:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <s v="Etape 2"/>
-    <x v="1"/>
-    <n v="3"/>
-    <x v="1"/>
-    <d v="2025-05-28T12:00:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <s v="Etape 3"/>
-    <x v="2"/>
-    <n v="4"/>
-    <x v="2"/>
-    <d v="2025-06-01T02:24:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <n v="1"/>
-    <x v="3"/>
-    <d v="2025-06-02T00:00:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <n v="5"/>
-    <x v="4"/>
-    <d v="2025-06-06T12:00:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <n v="2"/>
-    <x v="5"/>
-    <d v="2025-06-08T07:12:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="6"/>
-    <n v="2"/>
-    <x v="6"/>
-    <d v="2025-06-10T02:24:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="7"/>
-    <n v="1"/>
-    <x v="7"/>
-    <d v="2025-06-11T00:00:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="8"/>
-    <n v="6"/>
-    <x v="8"/>
-    <d v="2025-06-16T09:36:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="9"/>
-    <n v="2"/>
-    <x v="9"/>
-    <d v="2025-06-18T04:48:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="1"/>
-    <s v="-"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="10"/>
-    <n v="2"/>
-    <x v="10"/>
-    <d v="2025-06-20T00:00:00"/>
-    <s v="100%"/>
-    <m/>
-    <n v="0"/>
-    <d v="2025-06-21T00:00:00"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046B409C-9D5C-8F43-BABF-7E3E3D3697D6}" name="Tableau croisé dynamique2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B24" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="1"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="23">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Somme de Durée en jours" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4132,344 +2753,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655582B9-985D-3845-A0D7-D28B07F6D019}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBC1592-1A9C-8143-953E-A1EE7DFAA928}">
+  <dimension ref="A2:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="164.6640625" style="69" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
-        <v>45802.8</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="48">
-        <v>45816.3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="48">
-        <v>45819</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="48">
-        <v>45809.1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="48">
-        <v>45818.1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="48">
-        <v>45824.4</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="48">
-        <v>45805.5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="48">
-        <v>45814.5</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="48">
-        <v>45801</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>45810</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="48">
-        <v>45826.2</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>30</v>
+    <row r="2" spans="1:1" s="67" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="68"/>
+    </row>
+    <row r="15" spans="1:1" s="67" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A15" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="66"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE66A610-C796-AF4B-9B29-5C20713BB991}">
-  <dimension ref="A1:A55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B9587B-5009-4D43-92BC-CDCCB68D3BEE}">
+  <dimension ref="A2:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="164.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1" s="63" customFormat="1" ht="37" x14ac:dyDescent="0.45">
+      <c r="A2" s="62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
+    </row>
+    <row r="7" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="50" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+    </row>
+    <row r="10" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="11" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="12" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="65"/>
+    </row>
+    <row r="13" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="14" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="15" spans="1:1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+    </row>
+    <row r="16" spans="1:1" ht="25" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="17" spans="1:1" ht="50" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4484,803 +2950,803 @@
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="64" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="9.83203125" style="44" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="3.5" style="44" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.5" style="44" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" style="44" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="44" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="44" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="44" customWidth="1"/>
-    <col min="10" max="10" width="0.5" style="44" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" style="44" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="45" customWidth="1"/>
-    <col min="13" max="14" width="0" style="44" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.6640625" style="44"/>
+    <col min="1" max="1" width="4.6640625" style="43" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="9.83203125" style="43" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.5" style="43" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.5" style="43" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="43" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="0.5" style="43" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="43" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="44" customWidth="1"/>
+    <col min="13" max="14" width="0" style="43" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.6640625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:14" s="61" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" s="6" customFormat="1" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="str">
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="str">
         <f>IF(I4="Français","Langue:","Language:")</f>
         <v>Langue:</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" s="6" customFormat="1" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8">
+        <v>45801</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9">
-        <v>45801</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" s="6" customFormat="1" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8">
+        <v>45828</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="24.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="21.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9">
-        <v>45828</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" s="6" customFormat="1" ht="24.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="21.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" s="6" customFormat="1" ht="45.75" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-    </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" ht="34.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="53" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="56" t="s">
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="55"/>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="I12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="L12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+    </row>
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <f t="shared" ref="A13:A23" si="0">IF(F13="","",F13/$F$24*$A$24)</f>
         <v>1.8</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <f t="shared" ref="B13:B23" si="1">IF(F13="","",1-K13)</f>
         <v>0</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="22">
+      <c r="C13" s="3"/>
+      <c r="D13" s="21">
         <v>1</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>2</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="45">
         <f>E5</f>
         <v>45801</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="46">
         <f t="shared" ref="H13:H23" si="2">IFERROR(IF(G13="","",A13+G13),"")</f>
         <v>45802.8</v>
       </c>
-      <c r="I13" s="25" t="str">
+      <c r="I13" s="24" t="str">
         <f t="shared" ref="I13:I23" ca="1" si="3">IFERROR(IF(TODAY()&gt;=H13,"100%",IF(AND(TODAY()&lt;=H13,TODAY()&gt;=G13),(TODAY()-G13)/A13,"")),"")</f>
         <v>100%</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="25">
         <v>1</v>
       </c>
-      <c r="L13" s="51" t="str">
+      <c r="L13" s="47" t="str">
         <f t="shared" ref="L13:L23" ca="1" si="4">IF(AND(K13&lt;&gt;"",K13&lt;100%), TODAY() + ROUND((1 - K13) * B13, 0), "-")</f>
         <v>-</v>
       </c>
-      <c r="M13" s="27">
+      <c r="M13" s="26">
         <f ca="1">K13-I13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <f t="shared" ref="N13:N23" ca="1" si="5">M13*F13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="22">
+      <c r="C14" s="3"/>
+      <c r="D14" s="21">
         <v>2</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>3</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="45">
         <f t="shared" ref="G14:G23" si="6">IFERROR(IF(H13=$E$6,"",H13),"")</f>
         <v>45802.8</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="46">
         <f t="shared" si="2"/>
         <v>45805.5</v>
       </c>
-      <c r="I14" s="25" t="str">
+      <c r="I14" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J14" s="19"/>
-      <c r="K14" s="26">
+      <c r="J14" s="18"/>
+      <c r="K14" s="25">
         <v>1</v>
       </c>
-      <c r="L14" s="51" t="str">
+      <c r="L14" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="26">
         <f t="shared" ref="M14:M23" ca="1" si="7">K14-I14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+    <row r="15" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="22">
+      <c r="C15" s="3"/>
+      <c r="D15" s="21">
         <v>3</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>4</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="45">
         <f t="shared" si="6"/>
         <v>45805.5</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="46">
         <f t="shared" si="2"/>
         <v>45809.1</v>
       </c>
-      <c r="I15" s="25" t="str">
+      <c r="I15" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="26">
+      <c r="J15" s="18"/>
+      <c r="K15" s="25">
         <v>1</v>
       </c>
-      <c r="L15" s="51" t="str">
+      <c r="L15" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+    <row r="16" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="22">
+      <c r="C16" s="3"/>
+      <c r="D16" s="21">
         <v>4</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>1</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="45">
         <f t="shared" si="6"/>
         <v>45809.1</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="46">
         <f t="shared" si="2"/>
         <v>45810</v>
       </c>
-      <c r="I16" s="25" t="str">
+      <c r="I16" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="26">
+      <c r="J16" s="18"/>
+      <c r="K16" s="25">
         <v>1</v>
       </c>
-      <c r="L16" s="51" t="str">
+      <c r="L16" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+    <row r="17" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="22">
+      <c r="C17" s="3"/>
+      <c r="D17" s="21">
         <v>5</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>5</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="45">
         <f t="shared" si="6"/>
         <v>45810</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="46">
         <f t="shared" si="2"/>
         <v>45814.5</v>
       </c>
-      <c r="I17" s="25" t="str">
+      <c r="I17" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="26">
+      <c r="J17" s="18"/>
+      <c r="K17" s="25">
         <v>1</v>
       </c>
-      <c r="L17" s="51" t="str">
+      <c r="L17" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+    <row r="18" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="22">
+      <c r="C18" s="3"/>
+      <c r="D18" s="21">
         <v>6</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>2</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="45">
         <f t="shared" si="6"/>
         <v>45814.5</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="46">
         <f t="shared" si="2"/>
         <v>45816.3</v>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="26">
+      <c r="J18" s="18"/>
+      <c r="K18" s="25">
         <v>1</v>
       </c>
-      <c r="L18" s="51" t="str">
+      <c r="L18" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+    <row r="19" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="22">
+      <c r="C19" s="3"/>
+      <c r="D19" s="21">
         <v>7</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>2</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="45">
         <f t="shared" si="6"/>
         <v>45816.3</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="46">
         <f t="shared" si="2"/>
         <v>45818.100000000006</v>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="26">
+      <c r="J19" s="18"/>
+      <c r="K19" s="25">
         <v>1</v>
       </c>
-      <c r="L19" s="51" t="str">
+      <c r="L19" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+    <row r="20" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="22">
+      <c r="C20" s="3"/>
+      <c r="D20" s="21">
         <v>8</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>1</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="45">
         <f t="shared" si="6"/>
         <v>45818.100000000006</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="46">
         <f t="shared" si="2"/>
         <v>45819.000000000007</v>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="26">
+      <c r="J20" s="18"/>
+      <c r="K20" s="25">
         <v>1</v>
       </c>
-      <c r="L20" s="51" t="str">
+      <c r="L20" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+    <row r="21" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="22">
+      <c r="C21" s="3"/>
+      <c r="D21" s="21">
         <v>9</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>6</v>
       </c>
-      <c r="G21" s="49">
+      <c r="G21" s="45">
         <f t="shared" si="6"/>
         <v>45819.000000000007</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="46">
         <f t="shared" si="2"/>
         <v>45824.400000000009</v>
       </c>
-      <c r="I21" s="25" t="str">
+      <c r="I21" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="26">
+      <c r="J21" s="18"/>
+      <c r="K21" s="25">
         <v>1</v>
       </c>
-      <c r="L21" s="51" t="str">
+      <c r="L21" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M21" s="27">
+      <c r="M21" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+    <row r="22" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="22">
+      <c r="C22" s="3"/>
+      <c r="D22" s="21">
         <v>10</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>2</v>
       </c>
-      <c r="G22" s="49">
+      <c r="G22" s="45">
         <f t="shared" si="6"/>
         <v>45824.400000000009</v>
       </c>
-      <c r="H22" s="50">
+      <c r="H22" s="46">
         <f t="shared" si="2"/>
         <v>45826.200000000012</v>
       </c>
-      <c r="I22" s="25" t="str">
+      <c r="I22" s="24" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="26">
+      <c r="J22" s="18"/>
+      <c r="K22" s="25">
         <v>1</v>
       </c>
-      <c r="L22" s="51" t="str">
+      <c r="L22" s="47" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>-</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="6" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+    <row r="23" spans="1:14" s="5" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="22">
+      <c r="C23" s="3"/>
+      <c r="D23" s="21">
         <v>11</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="27">
         <v>2</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G23" s="45">
         <f t="shared" si="6"/>
         <v>45826.200000000012</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="46">
         <f t="shared" si="2"/>
         <v>45828.000000000015</v>
       </c>
-      <c r="I23" s="29" t="str">
+      <c r="I23" s="28" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>100%</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="30">
+      <c r="J23" s="18"/>
+      <c r="K23" s="29">
         <v>0</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="48">
         <f t="shared" ca="1" si="4"/>
-        <v>45830</v>
-      </c>
-      <c r="M23" s="27">
+        <v>45831</v>
+      </c>
+      <c r="M23" s="26">
         <f t="shared" ca="1" si="7"/>
         <v>-1</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31">
+    <row r="24" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30">
         <f>DATEDIF(E5,E6,"d")</f>
         <v>27</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="B24" s="30"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="33">
         <f>F13+F14+F15+F16+F17+F18+F19+F20+F21+F22+F23</f>
         <v>30</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38">
+      <c r="G24" s="34"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37">
         <f ca="1">N24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="39" t="str">
+      <c r="L24" s="38" t="str">
         <f ca="1">IF(K24="","",IF(K24&gt;=0,"Jours d'avance","Jours de retard"))</f>
         <v>Jours d'avance</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <f ca="1">SUM(N13:N22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="41"/>
+    <row r="25" spans="1:14" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" s="2" customFormat="1" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -5292,7 +3758,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f>COUNTIFS(A13:A23,"&gt;0")</f>
         <v>11</v>
@@ -5309,13 +3775,13 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="42"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -5323,7 +3789,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5337,7 +3803,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5351,7 +3817,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5365,7 +3831,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5379,7 +3845,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5393,7 +3859,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5407,7 +3873,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5421,7 +3887,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5435,7 +3901,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5449,7 +3915,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5463,7 +3929,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5477,7 +3943,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5491,7 +3957,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5505,7 +3971,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5519,7 +3985,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5533,7 +3999,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5547,7 +4013,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5561,7 +4027,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" s="3" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5575,7 +4041,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5589,11 +4055,11 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="12:12" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L49" s="3"/>
+    <row r="48" spans="1:12" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="12:12" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
